--- a/state_delimitations.xlsx
+++ b/state_delimitations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akankshavardani/Desktop/Research/Projects/affidavit_data-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE167ACF-1C2D-0D48-AEA4-19F0642CAF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6630CFB2-9F32-A14F-B809-FCCB29B2F1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22900" yWindow="1440" windowWidth="28040" windowHeight="17440" xr2:uid="{729334F1-7438-A348-B6FC-AC7005A60020}"/>
+    <workbookView xWindow="2180" yWindow="1120" windowWidth="28040" windowHeight="17440" xr2:uid="{729334F1-7438-A348-B6FC-AC7005A60020}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>Taking delimitation to be 2008</t>
   </si>
@@ -85,16 +85,85 @@
   </si>
   <si>
     <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Maha</t>
+  </si>
+  <si>
+    <t>Manipur</t>
+  </si>
+  <si>
+    <t>Meghalaya</t>
+  </si>
+  <si>
+    <t>Mizoram</t>
+  </si>
+  <si>
+    <t>Nagaland</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Tripura</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>Uttarakhand</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>Maharashtra Panchayat elections :</t>
+  </si>
+  <si>
+    <t>what are the phases of the mnrega program ?</t>
+  </si>
+  <si>
+    <t>UP Panchayat elections:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,17 +201,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,46 +527,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F52B29-7F69-194D-B99B-697E85B6240E}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.1640625" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -539,38 +609,41 @@
       <c r="N4">
         <v>2016</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -581,7 +654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -592,21 +665,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F9" s="4" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>11</v>
       </c>
@@ -614,7 +687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>12</v>
       </c>
@@ -622,7 +695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>13</v>
       </c>
@@ -633,7 +706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>14</v>
       </c>
@@ -641,7 +714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F14" t="s">
         <v>15</v>
       </c>
@@ -649,22 +722,258 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C15" s="5" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3" t="s">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E22" s="6"/>
+      <c r="F22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" t="s">
+        <v>33</v>
+      </c>
+      <c r="O31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>2004</v>
+      </c>
+      <c r="C35">
+        <v>2009</v>
+      </c>
+      <c r="D35">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
